--- a/biology/Botanique/Lobelia/Lobelia.xlsx
+++ b/biology/Botanique/Lobelia/Lobelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lobelia est un genre de plantes, les lobélies ou cardinales, de la famille des Campanulaceae. Il  contient environ 300 espèces à travers le monde. Le genre a été nommé par Charles Plumier en l'honneur du botaniste flamand Mathias de l'Obel, Carl von Linné le réutilisa par la suite.
 Les lobélies ont donné leur nom à l'un des alcaloïdes qu'elles contiennent, la lobéline.
@@ -512,7 +524,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lobelia inflata est connue comme plante de remplacement du tabac lors des rites pour ses propriétés magiques semblables à celles du tabac (selon les Indiens d'Amérique du Nord), mais aussi comme substitut à la nicotine (la lobéline - un des alcaloïdes de type pipéridine contenu dans la lobélia - agissant chimiquement comme la nicotine).
 Plusieurs espèces sont cultivées comme plante d'ornement.
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,9 +586,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (25 septembre 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (25 septembre 2017) :
 Liste d'espèces
 Lobelia aberdarica R.E.Fr. &amp; T.C.E.Fr.
 Lobelia acrochila (E.Wimm.) E.B.Knox
@@ -991,7 +1009,7 @@
 Lobelia zelayensis Wilbur
 Lobelia zeylanica L.
 Lobelia zwartkopensis E.Wimm.
-Selon ITIS      (25 septembre 2017)[3] :
+Selon ITIS      (25 septembre 2017) :
 Lobelia amoena Michx.
 Lobelia anatina E. Wimm.
 Lobelia appendiculata A. DC.
@@ -1045,7 +1063,7 @@
 Lobelia vivaldii Lammers &amp; Proctor
 Lobelia wahiawa Lammers
 Lobelia yuccoides Hillebr.
-Selon NCBI  (25 septembre 2017)[4] :
+Selon NCBI  (25 septembre 2017) :
 Lobelia aberdarica
 Lobelia acrochila
 Lobelia aguana
@@ -1181,7 +1199,7 @@
 Lobelia xalapensis
 Lobelia yuccoides
 Lobelia zeylanica
-Selon The Plant List            (25 septembre 2017)[5] :
+Selon The Plant List            (25 septembre 2017) :
 Lobelia aberdarica R.E.Fr. &amp; T.C.E.Fr.
 Lobelia acrochila (E.Wimm.) E.B.Knox
 Lobelia acuminata Sw.
@@ -1596,7 +1614,7 @@
 Lobelia zelayensis Wilbur
 Lobelia zeylanica L.
 Lobelia zwartkopensis E.Wimm.
-Selon Tropicos                                           (25 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Lobelia aberdarica R.E. &amp; T.C.E. Fries
 Lobelia acrochila (E. Wimm.) E.B. Knox
 Lobelia acuminata (Gaudich.) Endl.
@@ -1765,7 +1783,8 @@
 Lobelia christii Urb.
 Lobelia ciliata A. Spreng. ex C. Presl
 Lobelia cinerea Thunb.
-Lobelia circaeoides (C. Pr</t>
+Lobelia circaeoides (C. Presl) A. DC.
+Lob</t>
         </is>
       </c>
     </row>
